--- a/input/assets_input.xlsx
+++ b/input/assets_input.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\mygithub\Leon-stock\input\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chicony\project\Leon-stock\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F0233C4-3E04-4BD3-BB84-53F268A8C857}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B414D9CD-F02F-4485-99F5-FD82042A7E5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33945" yWindow="3570" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -450,19 +450,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="D2" sqref="D2:D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.69921875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.09765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>11</v>
       </c>
@@ -488,7 +488,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>44348</v>
       </c>
@@ -499,17 +499,17 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>1200</v>
+        <v>1400</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="G2">
         <f t="shared" ref="G2:G9" si="0">E2*D2</f>
-        <v>1200</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>44348</v>
       </c>
@@ -530,7 +530,7 @@
         <v>1804</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>44348</v>
       </c>
@@ -541,17 +541,17 @@
         <v>3</v>
       </c>
       <c r="D4">
-        <v>445385</v>
+        <v>448161</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="G4">
         <f t="shared" si="0"/>
-        <v>445385</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+        <v>448161</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>44348</v>
       </c>
@@ -562,17 +562,17 @@
         <v>5</v>
       </c>
       <c r="D5">
-        <v>402071</v>
+        <v>403775</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="G5">
         <f t="shared" si="0"/>
-        <v>402071</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+        <v>403775</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>44348</v>
       </c>
@@ -583,17 +583,17 @@
         <v>6</v>
       </c>
       <c r="D6">
-        <v>82334</v>
+        <v>127081</v>
       </c>
       <c r="E6">
         <v>1</v>
       </c>
       <c r="G6">
         <f t="shared" si="0"/>
-        <v>82334</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+        <v>127081</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>44348</v>
       </c>
@@ -604,17 +604,17 @@
         <v>7</v>
       </c>
       <c r="D7">
-        <v>3000</v>
+        <v>1038</v>
       </c>
       <c r="E7">
         <v>1</v>
       </c>
       <c r="G7">
         <f t="shared" si="0"/>
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>44348</v>
       </c>
@@ -625,17 +625,17 @@
         <v>8</v>
       </c>
       <c r="D8">
-        <v>2600</v>
+        <v>35000</v>
       </c>
       <c r="E8">
         <v>0.95</v>
       </c>
       <c r="G8">
         <f t="shared" si="0"/>
-        <v>2470</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+        <v>33250</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>44348</v>
       </c>
@@ -656,8 +656,29 @@
         <v>36491</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="1"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="1"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="1"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="1"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="1"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" s="1"/>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
